--- a/Dataset Links(Filtered-Unfiltered).xlsx
+++ b/Dataset Links(Filtered-Unfiltered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\datasets\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310A13A5-FB23-4C82-B724-74C0CB2108AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C161A93-FC80-4110-ABFF-C3ADD7FBAE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Dtaset Name</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>Awsome-Medical-Dataset</t>
+  </si>
+  <si>
+    <t>https://github.com/abachaa/MedQuAD/tree/master/1_CancerGov_QA</t>
+  </si>
+  <si>
+    <t>https://github.com/abachaa/MedQuAD/tree/master/4_MPlus_Health_Topics_QA</t>
+  </si>
+  <si>
+    <t>https://github.com/abachaa/MedQuAD/tree/master/9_CDC_QA</t>
+  </si>
+  <si>
+    <t>https://github.com/abachaa/Medication_QA_MedInfo2019/blob/master/MedInfo2019-QA-Medications.xlsx</t>
+  </si>
+  <si>
+    <t>For medications</t>
+  </si>
+  <si>
+    <t>https://github.com/mingzhu0527/MASHQA</t>
   </si>
 </sst>
 </file>
@@ -134,12 +152,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,11 +459,11 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -465,7 +483,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="s">
@@ -474,15 +492,15 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
@@ -519,6 +537,34 @@
       </c>
       <c r="F10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset Links(Filtered-Unfiltered).xlsx
+++ b/Dataset Links(Filtered-Unfiltered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\datasets\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C161A93-FC80-4110-ABFF-C3ADD7FBAE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1137C35-52E6-4DFE-9473-830959A26851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,12 +126,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,7 +450,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,7 +490,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="s">
